--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakas\OneDrive\Desktop\Dominion_Prep_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="2112"/>
   </bookViews>
   <sheets>
     <sheet name="ParentForm" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,8 @@
     <sheet name="StudentForm" sheetId="3" r:id="rId3"/>
     <sheet name="DoE_Login" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,35 +40,43 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Test_Parent@yopmail.com</t>
-  </si>
-  <si>
     <t>0987654321</t>
   </si>
   <si>
-    <t>Test_Teacher@yopmail.com</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
     <t>Username</t>
   </si>
   <si>
-    <t>doeschool@1</t>
-  </si>
-  <si>
     <t>doe@gmail.com</t>
+  </si>
+  <si>
+    <t>password@123</t>
+  </si>
+  <si>
+    <t>Test_Teacher1_8@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Parent1_8@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,8 +99,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -104,17 +109,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A1:XFD1 A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,23 +428,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -447,49 +456,52 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="19.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -509,33 +521,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="21.6640625" style="3"/>
+    <col min="1" max="16384" width="21.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakas\OneDrive\Desktop\Dominion_Prep_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="2112"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ParentForm" sheetId="1" r:id="rId1"/>
@@ -12,8 +17,7 @@
     <sheet name="StudentForm" sheetId="3" r:id="rId3"/>
     <sheet name="DoE_Login" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:J5"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,10 +59,10 @@
     <t>password@123</t>
   </si>
   <si>
-    <t>Test_Teacher1_8@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Parent1_8@yopmail.com</t>
+    <t>Test_Parent1_9@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Teacher1_9@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -401,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -455,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>

--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396"/>
   </bookViews>
   <sheets>
     <sheet name="ParentForm" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,10 @@
     <t>password@123</t>
   </si>
   <si>
-    <t>Test_Parent1_9@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Teacher1_9@yopmail.com</t>
+    <t>Test_Teacher1_10@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Parent1_10@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>

--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -59,10 +59,10 @@
     <t>password@123</t>
   </si>
   <si>
-    <t>Test_Teacher1_10@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Parent1_10@yopmail.com</t>
+    <t>Test_Teacher1_12@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Parent1_12@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ParentForm" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,10 @@
     <t>password@123</t>
   </si>
   <si>
-    <t>Test_Teacher1_12@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Parent1_12@yopmail.com</t>
+    <t>Test_Parent1_13@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Teacher1_13@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>

--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396"/>
   </bookViews>
   <sheets>
     <sheet name="ParentForm" sheetId="1" r:id="rId1"/>
@@ -53,16 +53,16 @@
     <t>Username</t>
   </si>
   <si>
-    <t>doe@gmail.com</t>
-  </si>
-  <si>
     <t>password@123</t>
   </si>
   <si>
-    <t>Test_Parent1_13@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Teacher1_13@yopmail.com</t>
+    <t xml:space="preserve">doe_001@yopmail.com </t>
+  </si>
+  <si>
+    <t>Test_Teacher1_14@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Parent1_14@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -107,19 +107,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -405,15 +399,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
@@ -439,8 +433,8 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -459,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -493,8 +487,8 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -526,7 +520,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,18 +537,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ParentForm" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -107,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -115,7 +115,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -397,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,10 +419,12 @@
     <col min="2" max="2" width="20.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,19 +437,31 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -451,10 +475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,10 +487,12 @@
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="17.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -479,19 +505,31 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -520,7 +558,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396"/>
   </bookViews>
   <sheets>
     <sheet name="ParentForm" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,10 @@
     <t xml:space="preserve">doe_001@yopmail.com </t>
   </si>
   <si>
-    <t>Test_Teacher1_14@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Parent1_14@yopmail.com</t>
+    <t>Test_Teacher1_15@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Parent1_15@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ParentForm" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>FirstName</t>
   </si>
@@ -59,10 +59,19 @@
     <t xml:space="preserve">doe_001@yopmail.com </t>
   </si>
   <si>
-    <t>Test_Teacher1_15@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Parent1_15@yopmail.com</t>
+    <t>DoE_Username</t>
+  </si>
+  <si>
+    <t>DoE_Password</t>
+  </si>
+  <si>
+    <t>Test_Parent1_20@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Teacher1_20@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Student1_20@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -107,7 +116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -125,6 +134,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -409,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -452,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -478,16 +490,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -506,10 +518,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -520,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -543,12 +555,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -558,7 +624,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="3390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ParentForm" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>FirstName</t>
   </si>
@@ -56,29 +56,38 @@
     <t>password@123</t>
   </si>
   <si>
-    <t xml:space="preserve">doe_001@yopmail.com </t>
-  </si>
-  <si>
     <t>DoE_Username</t>
   </si>
   <si>
     <t>DoE_Password</t>
   </si>
   <si>
-    <t>Test_Parent1_20@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Teacher1_20@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Student1_20@yopmail.com</t>
+    <t>Test_Student</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doe_mmt@yopmail.com </t>
+  </si>
+  <si>
+    <t>Test_Teacher1_32@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Parent1_32@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Student1_32@yopmail.com</t>
+  </si>
+  <si>
+    <t>doe_mmt@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +102,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,7 +131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -138,6 +153,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -419,201 +436,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" customWidth="1"/>
-    <col min="5" max="5" width="34.5546875" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E2" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -623,16 +715,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="21.6640625" style="2"/>
+    <col min="1" max="16384" width="21.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -640,16 +732,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="3390" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="3390"/>
   </bookViews>
   <sheets>
     <sheet name="ParentForm" sheetId="1" r:id="rId1"/>
@@ -71,13 +71,13 @@
     <t xml:space="preserve">doe_mmt@yopmail.com </t>
   </si>
   <si>
-    <t>Test_Teacher1_32@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Parent1_32@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Student1_32@yopmail.com</t>
+    <t>Test_Teacher1_33@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Parent1_33@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Student1_33@yopmail.com</t>
   </si>
   <si>
     <t>doe_mmt@yopmail.com</t>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,12 +102,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -154,7 +148,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -436,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,26 +486,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="6"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
@@ -525,7 +498,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -582,26 +555,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="3"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
@@ -614,7 +567,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -670,38 +623,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -715,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -71,16 +71,16 @@
     <t xml:space="preserve">doe_mmt@yopmail.com </t>
   </si>
   <si>
-    <t>Test_Teacher1_33@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Parent1_33@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Student1_33@yopmail.com</t>
-  </si>
-  <si>
     <t>doe_mmt@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Student1_41@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Teacher1_41@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Parent1_41@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -474,13 +474,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>8</v>
@@ -488,11 +488,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -543,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
@@ -557,11 +556,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -608,13 +606,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
+      <c r="D2" t="s">
+        <v>14</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>8</v>
@@ -625,8 +623,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -637,7 +634,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="3390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="3390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ParentForm" sheetId="1" r:id="rId1"/>
@@ -74,13 +74,13 @@
     <t>doe_mmt@yopmail.com</t>
   </si>
   <si>
-    <t>Test_Student1_41@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Teacher1_41@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Parent1_41@yopmail.com</t>
+    <t>Test_Parent1_42@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Teacher1_42@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Student1_42@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -567,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -606,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>

--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="3390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396"/>
   </bookViews>
   <sheets>
     <sheet name="ParentForm" sheetId="1" r:id="rId1"/>
@@ -74,13 +74,13 @@
     <t>doe_mmt@yopmail.com</t>
   </si>
   <si>
-    <t>Test_Parent1_42@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Teacher1_42@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Student1_42@yopmail.com</t>
+    <t>Test_Student1_43@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Teacher1_43@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Parent1_43@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -431,22 +431,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="28.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -503,18 +503,18 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,7 +534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -567,21 +567,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -601,12 +601,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -637,12 +637,12 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="21.7109375" style="2"/>
+    <col min="1" max="16384" width="21.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -650,7 +650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>

--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ParentForm" sheetId="1" r:id="rId1"/>
@@ -74,13 +74,13 @@
     <t>doe_mmt@yopmail.com</t>
   </si>
   <si>
-    <t>Test_Student1_43@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Teacher1_43@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Parent1_43@yopmail.com</t>
+    <t>Test_Parent1_44@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Teacher1_44@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Student1_44@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -567,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -606,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>

--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396"/>
   </bookViews>
   <sheets>
     <sheet name="ParentForm" sheetId="1" r:id="rId1"/>
@@ -74,13 +74,13 @@
     <t>doe_mmt@yopmail.com</t>
   </si>
   <si>
-    <t>Test_Parent1_44@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Teacher1_44@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_Student1_44@yopmail.com</t>
+    <t>Test_Student1_45@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Teacher1_45@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_Parent1_45@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -567,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -606,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>

--- a/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
+++ b/DominionPrep_CI/src/main/resources/Excel/DP_Data.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="3396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="3390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ParentForm" sheetId="1" r:id="rId1"/>
     <sheet name="TeacherForm" sheetId="2" r:id="rId2"/>
     <sheet name="StudentForm" sheetId="3" r:id="rId3"/>
     <sheet name="DoE_Login" sheetId="4" r:id="rId4"/>
+    <sheet name="Admin" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>FirstName</t>
   </si>
@@ -74,13 +75,25 @@
     <t>doe_mmt@yopmail.com</t>
   </si>
   <si>
-    <t>Test_Student1_45@yopmail.com</t>
-  </si>
-  <si>
     <t>Test_Teacher1_45@yopmail.com</t>
   </si>
   <si>
     <t>Test_Parent1_45@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_mmt@yopmail.com </t>
+  </si>
+  <si>
+    <t>Admin_Password</t>
+  </si>
+  <si>
+    <t>admin_mmt@yopmail.com</t>
+  </si>
+  <si>
+    <t>Admin_Username</t>
+  </si>
+  <si>
+    <t>Test_Student1_50@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -125,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -144,10 +157,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -431,22 +456,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="28.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -474,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -503,18 +528,18 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="7" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,7 +559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -542,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -565,59 +590,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16" style="11" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="23" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -634,15 +667,15 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A2" activeCellId="1" sqref="A1:XFD1 A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="21.6640625" style="2"/>
+    <col min="1" max="16384" width="21.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -650,8 +683,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
@@ -665,4 +698,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>